--- a/Code/Results/Cases/Case_1_184/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_184/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8384829337207407</v>
+        <v>0.9394706710291985</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005320407876498123</v>
+        <v>0.006976860367000626</v>
       </c>
       <c r="E2">
-        <v>0.02170949717828385</v>
+        <v>0.0378358063093529</v>
       </c>
       <c r="F2">
-        <v>2.102477288323712</v>
+        <v>3.517797489769237</v>
       </c>
       <c r="G2">
-        <v>0.0008414668235764975</v>
+        <v>0.002607396914752075</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9310374479147399</v>
+        <v>1.821690953948121</v>
       </c>
       <c r="J2">
-        <v>0.05199916684786032</v>
+        <v>0.08682373588464465</v>
       </c>
       <c r="K2">
-        <v>2.440588285058681</v>
+        <v>1.775038974064472</v>
       </c>
       <c r="L2">
-        <v>0.5743680804549598</v>
+        <v>0.6367092987006515</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.684211921464374</v>
+        <v>3.231951835829115</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7436101018127204</v>
+        <v>0.9200326440561355</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004401056938966974</v>
+        <v>0.006603349257552793</v>
       </c>
       <c r="E3">
-        <v>0.0201853813748798</v>
+        <v>0.03733750112965506</v>
       </c>
       <c r="F3">
-        <v>2.004515507045411</v>
+        <v>3.510760016306861</v>
       </c>
       <c r="G3">
-        <v>0.0008487420691969515</v>
+        <v>0.002612074777057436</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9212639343331546</v>
+        <v>1.826733587593125</v>
       </c>
       <c r="J3">
-        <v>0.05030082337771979</v>
+        <v>0.08624461744051892</v>
       </c>
       <c r="K3">
-        <v>2.134469466189898</v>
+        <v>1.70483193987522</v>
       </c>
       <c r="L3">
-        <v>0.5127910206047517</v>
+        <v>0.6248057736015653</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.728667910844749</v>
+        <v>3.251186447772795</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6861807277947207</v>
+        <v>0.9085689042117906</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003876770472498237</v>
+        <v>0.006371484654035697</v>
       </c>
       <c r="E4">
-        <v>0.01926593433955048</v>
+        <v>0.03702554912446132</v>
       </c>
       <c r="F4">
-        <v>1.94774987909453</v>
+        <v>3.507965252309731</v>
       </c>
       <c r="G4">
-        <v>0.0008533446301447589</v>
+        <v>0.002615100406385217</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9165376193973103</v>
+        <v>1.830456976551218</v>
       </c>
       <c r="J4">
-        <v>0.04926921965993358</v>
+        <v>0.08588174631521461</v>
       </c>
       <c r="K4">
-        <v>1.949528370361776</v>
+        <v>1.662768302081815</v>
       </c>
       <c r="L4">
-        <v>0.4757862579788394</v>
+        <v>0.6178391480011101</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.75775202897961</v>
+        <v>3.26380851133078</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6629659935170196</v>
+        <v>0.9040161694374262</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.003671795608337192</v>
+        <v>0.006276326617999928</v>
       </c>
       <c r="E5">
-        <v>0.01889448680768968</v>
+        <v>0.03689689758373227</v>
       </c>
       <c r="F5">
-        <v>1.925413997875097</v>
+        <v>3.50721000263772</v>
       </c>
       <c r="G5">
-        <v>0.0008552553306894296</v>
+        <v>0.002616372074329108</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9149172232655047</v>
+        <v>1.832132023001506</v>
       </c>
       <c r="J5">
-        <v>0.04885092360845888</v>
+        <v>0.08573202252093459</v>
       </c>
       <c r="K5">
-        <v>1.87483739114117</v>
+        <v>1.645889178881333</v>
       </c>
       <c r="L5">
-        <v>0.4608897889037706</v>
+        <v>0.6150862048524317</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.77003906375721</v>
+        <v>3.269156191708689</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6591220475517048</v>
+        <v>0.9032673780700122</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003638244271703783</v>
+        <v>0.006260484110869768</v>
       </c>
       <c r="E6">
-        <v>0.0188329792915285</v>
+        <v>0.03687544212638194</v>
       </c>
       <c r="F6">
-        <v>1.921751739072562</v>
+        <v>3.507107760567891</v>
       </c>
       <c r="G6">
-        <v>0.00085557475138065</v>
+        <v>0.002616585574795886</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9146661989963079</v>
+        <v>1.832419690735087</v>
       </c>
       <c r="J6">
-        <v>0.04878157221471113</v>
+        <v>0.08570704869522316</v>
       </c>
       <c r="K6">
-        <v>1.862473357993963</v>
+        <v>1.643102237806744</v>
       </c>
       <c r="L6">
-        <v>0.458426784684363</v>
+        <v>0.6146342748753</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.772105183839692</v>
+        <v>3.270056494027429</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6858669075981823</v>
+        <v>0.9085070228616416</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.003873972779599555</v>
+        <v>0.006370204084134912</v>
       </c>
       <c r="E7">
-        <v>0.01926091287988996</v>
+        <v>0.03702382030266271</v>
       </c>
       <c r="F7">
-        <v>1.947445493196867</v>
+        <v>3.507953513624926</v>
       </c>
       <c r="G7">
-        <v>0.0008533702549610189</v>
+        <v>0.002615117399647361</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9165145477213699</v>
+        <v>1.830478928126638</v>
       </c>
       <c r="J7">
-        <v>0.04926357081664001</v>
+        <v>0.0858797346046174</v>
       </c>
       <c r="K7">
-        <v>1.948518440177509</v>
+        <v>1.662539603294618</v>
       </c>
       <c r="L7">
-        <v>0.4755846408782958</v>
+        <v>0.6178016726239406</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.757915993355624</v>
+        <v>3.263879805800649</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8055882862536805</v>
+        <v>0.9326708081197239</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004994168624730122</v>
+        <v>0.006848576549902674</v>
       </c>
       <c r="E8">
-        <v>0.02118002994243895</v>
+        <v>0.03766522055178623</v>
       </c>
       <c r="F8">
-        <v>2.06796402933017</v>
+        <v>3.515054085556315</v>
       </c>
       <c r="G8">
-        <v>0.0008439478457227404</v>
+        <v>0.002608978078115659</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9273936904351388</v>
+        <v>1.823299491558728</v>
       </c>
       <c r="J8">
-        <v>0.05141080139924448</v>
+        <v>0.08662555808898631</v>
       </c>
       <c r="K8">
-        <v>2.334359378094177</v>
+        <v>1.750614737520891</v>
       </c>
       <c r="L8">
-        <v>0.5529576962497913</v>
+        <v>0.6325339166372146</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.699160162586274</v>
+        <v>3.238415365038492</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.047814704101171</v>
+        <v>0.9837848492852572</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007581896909311325</v>
+        <v>0.007768261333275461</v>
       </c>
       <c r="E9">
-        <v>0.02511754076872474</v>
+        <v>0.03887651204996345</v>
       </c>
       <c r="F9">
-        <v>2.333807413116432</v>
+        <v>3.541100543492462</v>
       </c>
       <c r="G9">
-        <v>0.0008264951539956246</v>
+        <v>0.002598150368226192</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9595704136217265</v>
+        <v>1.81419717539243</v>
       </c>
       <c r="J9">
-        <v>0.05574654497090137</v>
+        <v>0.08803111890760817</v>
       </c>
       <c r="K9">
-        <v>3.119113101840185</v>
+        <v>1.931637466542156</v>
       </c>
       <c r="L9">
-        <v>0.7119940553797903</v>
+        <v>0.6641428359853592</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.598837774300407</v>
+        <v>3.194925418027012</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.231735554260979</v>
+        <v>1.023602895980247</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.00983486144541601</v>
+        <v>0.008435070263981714</v>
       </c>
       <c r="E10">
-        <v>0.0281861088380051</v>
+        <v>0.03973960263871223</v>
       </c>
       <c r="F10">
-        <v>2.551179774591048</v>
+        <v>3.567650733263918</v>
       </c>
       <c r="G10">
-        <v>0.0008142202401423397</v>
+        <v>0.002590925815742676</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9909293314169076</v>
+        <v>1.81054518348575</v>
       </c>
       <c r="J10">
-        <v>0.05906517041305115</v>
+        <v>0.08903027771791905</v>
       </c>
       <c r="K10">
-        <v>3.71923941002126</v>
+        <v>2.069752200506912</v>
       </c>
       <c r="L10">
-        <v>0.8347211087074697</v>
+        <v>0.6890325281724188</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.535293533755507</v>
+        <v>3.166907277455152</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.317049199416573</v>
+        <v>1.042207446416</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01096570047442214</v>
+        <v>0.008737002172452435</v>
       </c>
       <c r="E11">
-        <v>0.02963825416924948</v>
+        <v>0.0401267441132136</v>
       </c>
       <c r="F11">
-        <v>2.655872652565506</v>
+        <v>3.581344705936374</v>
       </c>
       <c r="G11">
-        <v>0.0008087359729510267</v>
+        <v>0.002587796113480404</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.007146651647716</v>
+        <v>1.809543443138857</v>
       </c>
       <c r="J11">
-        <v>0.06061854071103667</v>
+        <v>0.08947781781954234</v>
       </c>
       <c r="K11">
-        <v>3.998977103905304</v>
+        <v>2.133707936777512</v>
       </c>
       <c r="L11">
-        <v>0.8921872182830555</v>
+        <v>0.7007196015642592</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.508862815444942</v>
+        <v>3.155016361132809</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.349624228940087</v>
+        <v>1.049322899970122</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01141202608013714</v>
+        <v>0.008851175693916247</v>
       </c>
       <c r="E12">
-        <v>0.03019797357436005</v>
+        <v>0.0402725817599725</v>
       </c>
       <c r="F12">
-        <v>2.69644721941674</v>
+        <v>3.586763014009904</v>
       </c>
       <c r="G12">
-        <v>0.0008066718064315139</v>
+        <v>0.002586633392486748</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.013594079626799</v>
+        <v>1.809258981875431</v>
       </c>
       <c r="J12">
-        <v>0.06121446647877526</v>
+        <v>0.08964630627126802</v>
       </c>
       <c r="K12">
-        <v>4.106025090679907</v>
+        <v>2.158089005847444</v>
       </c>
       <c r="L12">
-        <v>0.914216799588047</v>
+        <v>0.7051977386696819</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.499235821474926</v>
+        <v>3.150636603373741</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.342596127339533</v>
+        <v>1.04778733737021</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01131504698753005</v>
+        <v>0.008826592922446252</v>
       </c>
       <c r="E13">
-        <v>0.03007696092886469</v>
+        <v>0.04024120662715447</v>
       </c>
       <c r="F13">
-        <v>2.687665803875163</v>
+        <v>3.58558573029427</v>
       </c>
       <c r="G13">
-        <v>0.0008071158302890247</v>
+        <v>0.002586882809547949</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.012191452752973</v>
+        <v>1.809316025534393</v>
       </c>
       <c r="J13">
-        <v>0.06108575631300184</v>
+        <v>0.08961006278819816</v>
       </c>
       <c r="K13">
-        <v>4.082918154333242</v>
+        <v>2.152830876073494</v>
       </c>
       <c r="L13">
-        <v>0.9094598329914447</v>
+        <v>0.704230955901977</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.501291749155158</v>
+        <v>3.151574386002551</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.319723590218501</v>
+        <v>1.042791431617275</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01100203936810829</v>
+        <v>0.008746398302488245</v>
       </c>
       <c r="E14">
-        <v>0.02968409496789093</v>
+        <v>0.04013875744627793</v>
       </c>
       <c r="F14">
-        <v>2.659191538877209</v>
+        <v>3.58178580806053</v>
       </c>
       <c r="G14">
-        <v>0.0008085659105107057</v>
+        <v>0.002587700006817593</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.007670791070993</v>
+        <v>1.809518138695111</v>
       </c>
       <c r="J14">
-        <v>0.06066740483991495</v>
+        <v>0.08949169910355614</v>
       </c>
       <c r="K14">
-        <v>4.007760702936423</v>
+        <v>2.135710524480373</v>
       </c>
       <c r="L14">
-        <v>0.8939940238681459</v>
+        <v>0.7010869681267025</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.508062988852302</v>
+        <v>3.154653568229179</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.305749477594276</v>
+        <v>1.039740442964586</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0108127621645373</v>
+        <v>0.008697256945922049</v>
       </c>
       <c r="E15">
-        <v>0.0294447880193891</v>
+        <v>0.04007590552990514</v>
       </c>
       <c r="F15">
-        <v>2.64187426747057</v>
+        <v>3.579488559055719</v>
       </c>
       <c r="G15">
-        <v>0.000809455714263282</v>
+        <v>0.002588203481347312</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.004942446606343</v>
+        <v>1.809654295471262</v>
       </c>
       <c r="J15">
-        <v>0.06041220011890402</v>
+        <v>0.08941907017786654</v>
       </c>
       <c r="K15">
-        <v>3.961874797466805</v>
+        <v>2.12524497899841</v>
       </c>
       <c r="L15">
-        <v>0.8845567654783508</v>
+        <v>0.6991680232996487</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.512261093895191</v>
+        <v>3.156555689357447</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.226195894029303</v>
+        <v>1.022396901007312</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.009763326817058271</v>
+        <v>0.008415313497341259</v>
       </c>
       <c r="E16">
-        <v>0.02809248266682651</v>
+        <v>0.03971419375069196</v>
       </c>
       <c r="F16">
-        <v>2.544462579294901</v>
+        <v>3.566788346276439</v>
       </c>
       <c r="G16">
-        <v>0.0008145805117199411</v>
+        <v>0.002591133494002627</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9899108985754879</v>
+        <v>1.810623924356591</v>
       </c>
       <c r="J16">
-        <v>0.0589646501789467</v>
+        <v>0.08900089101940623</v>
       </c>
       <c r="K16">
-        <v>3.701105804562133</v>
+        <v>2.065595248462785</v>
       </c>
       <c r="L16">
-        <v>0.8310012459346012</v>
+        <v>0.6882760929906624</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.537072800668142</v>
+        <v>3.167701589724658</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.177835832502154</v>
+        <v>1.011882766958109</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.009148590701606452</v>
+        <v>0.008242019457014749</v>
       </c>
       <c r="E17">
-        <v>0.02727845645409577</v>
+        <v>0.03949090801441368</v>
       </c>
       <c r="F17">
-        <v>2.48625554473341</v>
+        <v>3.559411321605594</v>
       </c>
       <c r="G17">
-        <v>0.0008177487595854772</v>
+        <v>0.00259297103520754</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9812068811694203</v>
+        <v>1.811387712714421</v>
       </c>
       <c r="J17">
-        <v>0.05808876905805782</v>
+        <v>0.08874257662825258</v>
       </c>
       <c r="K17">
-        <v>3.542958833837019</v>
+        <v>2.029290919751588</v>
       </c>
       <c r="L17">
-        <v>0.7985883391282869</v>
+        <v>0.6816876801707679</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.552945562171004</v>
+        <v>3.174758262966023</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.150173361728605</v>
+        <v>1.005881560019475</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.008804790952403607</v>
+        <v>0.00814221083410871</v>
       </c>
       <c r="E18">
-        <v>0.02681542693914452</v>
+        <v>0.03936196245180223</v>
       </c>
       <c r="F18">
-        <v>2.453316975873378</v>
+        <v>3.55532035430781</v>
       </c>
       <c r="G18">
-        <v>0.0008195805447223482</v>
+        <v>0.002594042704051565</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9763826129822988</v>
+        <v>1.811889103330081</v>
       </c>
       <c r="J18">
-        <v>0.05758900493507468</v>
+        <v>0.08859334268683483</v>
       </c>
       <c r="K18">
-        <v>3.452621229758222</v>
+        <v>2.008515650574338</v>
       </c>
       <c r="L18">
-        <v>0.7800971963122265</v>
+        <v>0.6779325158712766</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.56230650275316</v>
+        <v>3.178897510331765</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.140832678188332</v>
+        <v>1.003857606527163</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.008689984831601549</v>
+        <v>0.008108393037858264</v>
       </c>
       <c r="E19">
-        <v>0.02665949296437642</v>
+        <v>0.0393182140899091</v>
       </c>
       <c r="F19">
-        <v>2.442254673077045</v>
+        <v>3.553961337884488</v>
       </c>
       <c r="G19">
-        <v>0.0008202024357054437</v>
+        <v>0.002594408092116973</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9747797286093842</v>
+        <v>1.812069526935559</v>
       </c>
       <c r="J19">
-        <v>0.05742044364876264</v>
+        <v>0.08854270100002104</v>
       </c>
       <c r="K19">
-        <v>3.422137430498594</v>
+        <v>2.001499698278622</v>
       </c>
       <c r="L19">
-        <v>0.7738615531274888</v>
+        <v>0.6766669737862969</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.565514950985289</v>
+        <v>3.180312798058253</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.182967793075505</v>
+        <v>1.012997230561837</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.009212998650404813</v>
+        <v>0.008260480530477565</v>
       </c>
       <c r="E20">
-        <v>0.027364563294757</v>
+        <v>0.03951473054891164</v>
       </c>
       <c r="F20">
-        <v>2.492395183520756</v>
+        <v>3.56018087440961</v>
       </c>
       <c r="G20">
-        <v>0.0008174105237339751</v>
+        <v>0.002592773898473495</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9821144198764529</v>
+        <v>1.811299980929071</v>
       </c>
       <c r="J20">
-        <v>0.05818158244200333</v>
+        <v>0.08877014263484284</v>
       </c>
       <c r="K20">
-        <v>3.559728205136821</v>
+        <v>2.03314460189614</v>
       </c>
       <c r="L20">
-        <v>0.8020227988907322</v>
+        <v>0.6823854758948471</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.55123175836782</v>
+        <v>3.173998742082446</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.326434250047839</v>
+        <v>1.044256944376087</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01109346125082311</v>
+        <v>0.008769957467290368</v>
       </c>
       <c r="E21">
-        <v>0.02979920762091748</v>
+        <v>0.04016886980810419</v>
       </c>
       <c r="F21">
-        <v>2.667529088552456</v>
+        <v>3.582895619569001</v>
       </c>
       <c r="G21">
-        <v>0.0008081396592685269</v>
+        <v>0.002587459368254275</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.00899008948933</v>
+        <v>1.809456197990301</v>
       </c>
       <c r="J21">
-        <v>0.06079006369229845</v>
+        <v>0.0895264919765193</v>
       </c>
       <c r="K21">
-        <v>4.029804677541847</v>
+        <v>2.14073477539614</v>
       </c>
       <c r="L21">
-        <v>0.8985291412549827</v>
+        <v>0.7020090082999388</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.506063532322614</v>
+        <v>3.1537457961672</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.42178061317307</v>
+        <v>1.065096678179174</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01242958356554169</v>
+        <v>0.009102007536206713</v>
       </c>
       <c r="E22">
-        <v>0.03144862769474521</v>
+        <v>0.04059194326482363</v>
       </c>
       <c r="F22">
-        <v>2.787459210694351</v>
+        <v>3.59909750418592</v>
       </c>
       <c r="G22">
-        <v>0.0008021531628949061</v>
+        <v>0.002584116696958536</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.028353984848664</v>
+        <v>1.808804206025776</v>
       </c>
       <c r="J22">
-        <v>0.06254052399822285</v>
+        <v>0.0900150759109799</v>
       </c>
       <c r="K22">
-        <v>4.343620921721083</v>
+        <v>2.211998079421448</v>
       </c>
       <c r="L22">
-        <v>0.9631841292055014</v>
+        <v>0.7151401400555528</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.478782604562568</v>
+        <v>3.141226779628042</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.370736298900511</v>
+        <v>1.053936733081542</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01170561582412688</v>
+        <v>0.008924857167603051</v>
       </c>
       <c r="E23">
-        <v>0.03056233595237501</v>
+        <v>0.04036653966962866</v>
       </c>
       <c r="F23">
-        <v>2.722915877020341</v>
+        <v>3.590326034432763</v>
       </c>
       <c r="G23">
-        <v>0.0008053422470484441</v>
+        <v>0.00258588882438946</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.017845327572616</v>
+        <v>1.809101573439875</v>
       </c>
       <c r="J23">
-        <v>0.06160157469139449</v>
+        <v>0.08975482789327849</v>
       </c>
       <c r="K23">
-        <v>4.175474480812284</v>
+        <v>2.17387673233327</v>
       </c>
       <c r="L23">
-        <v>0.9285198742886962</v>
+        <v>0.7081037854121632</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.493128825477939</v>
+        <v>3.147842708791543</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.180647198830769</v>
+        <v>1.012493246019744</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.009183850063397614</v>
+        <v>0.008252134842635428</v>
       </c>
       <c r="E24">
-        <v>0.02732561905542497</v>
+        <v>0.03950396217642371</v>
       </c>
       <c r="F24">
-        <v>2.489617823229381</v>
+        <v>3.559832491801188</v>
       </c>
       <c r="G24">
-        <v>0.0008175634080377279</v>
+        <v>0.002592862976464721</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9817035635312692</v>
+        <v>1.811339450476915</v>
       </c>
       <c r="J24">
-        <v>0.05813960980547606</v>
+        <v>0.08875768230514502</v>
       </c>
       <c r="K24">
-        <v>3.552144966874835</v>
+        <v>2.031402051419718</v>
       </c>
       <c r="L24">
-        <v>0.8004696352091401</v>
+        <v>0.6820699009028033</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.552005837514827</v>
+        <v>3.174341865208106</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9813496518491434</v>
+        <v>0.9695588521705929</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.006829112391415038</v>
+        <v>0.007521192775790553</v>
       </c>
       <c r="E25">
-        <v>0.02402701671071394</v>
+        <v>0.03855364894939761</v>
       </c>
       <c r="F25">
-        <v>2.258333620578028</v>
+        <v>3.532754090591681</v>
       </c>
       <c r="G25">
-        <v>0.0008311144381275319</v>
+        <v>0.002600950681446724</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9495965688449814</v>
+        <v>1.81612666107965</v>
       </c>
       <c r="J25">
-        <v>0.05455474881802047</v>
+        <v>0.08765685175759863</v>
       </c>
       <c r="K25">
-        <v>2.903179307714481</v>
+        <v>1.881771223972862</v>
       </c>
       <c r="L25">
-        <v>0.6680488398867794</v>
+        <v>0.6552997742508069</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.624277497722076</v>
+        <v>3.206000101529995</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_184/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_184/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9394706710291985</v>
+        <v>0.8384829337209112</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.006976860367000626</v>
+        <v>0.005320407876498123</v>
       </c>
       <c r="E2">
-        <v>0.0378358063093529</v>
+        <v>0.02170949717829096</v>
       </c>
       <c r="F2">
-        <v>3.517797489769237</v>
+        <v>2.10247728832374</v>
       </c>
       <c r="G2">
-        <v>0.002607396914752075</v>
+        <v>0.0008414668234987378</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.821690953948121</v>
+        <v>0.931037447914747</v>
       </c>
       <c r="J2">
-        <v>0.08682373588464465</v>
+        <v>0.05199916684790118</v>
       </c>
       <c r="K2">
-        <v>1.775038974064472</v>
+        <v>2.440588285058652</v>
       </c>
       <c r="L2">
-        <v>0.6367092987006515</v>
+        <v>0.5743680804550024</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.231951835829115</v>
+        <v>1.68421192146441</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9200326440561355</v>
+        <v>0.7436101018123793</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.006603349257552793</v>
+        <v>0.004401056939077108</v>
       </c>
       <c r="E3">
-        <v>0.03733750112965506</v>
+        <v>0.02018538137487536</v>
       </c>
       <c r="F3">
-        <v>3.510760016306861</v>
+        <v>2.004515507045411</v>
       </c>
       <c r="G3">
-        <v>0.002612074777057436</v>
+        <v>0.0008487420692254584</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.826733587593125</v>
+        <v>0.9212639343331546</v>
       </c>
       <c r="J3">
-        <v>0.08624461744051892</v>
+        <v>0.0503008233776967</v>
       </c>
       <c r="K3">
-        <v>1.70483193987522</v>
+        <v>2.134469466189842</v>
       </c>
       <c r="L3">
-        <v>0.6248057736015653</v>
+        <v>0.5127910206047375</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.251186447772795</v>
+        <v>1.728667910844798</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9085689042117906</v>
+        <v>0.6861807277945786</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.006371484654035697</v>
+        <v>0.003876770472372115</v>
       </c>
       <c r="E4">
-        <v>0.03702554912446132</v>
+        <v>0.01926593433952473</v>
       </c>
       <c r="F4">
-        <v>3.507965252309731</v>
+        <v>1.947749879094502</v>
       </c>
       <c r="G4">
-        <v>0.002615100406385217</v>
+        <v>0.0008533446301139854</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.830456976551218</v>
+        <v>0.9165376193973103</v>
       </c>
       <c r="J4">
-        <v>0.08588174631521461</v>
+        <v>0.04926921965990516</v>
       </c>
       <c r="K4">
-        <v>1.662768302081815</v>
+        <v>1.949528370361861</v>
       </c>
       <c r="L4">
-        <v>0.6178391480011101</v>
+        <v>0.4757862579788252</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.26380851133078</v>
+        <v>1.757752028979603</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9040161694374262</v>
+        <v>0.6629659935169059</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.006276326617999928</v>
+        <v>0.003671795608330086</v>
       </c>
       <c r="E5">
-        <v>0.03689689758373227</v>
+        <v>0.018894486807703</v>
       </c>
       <c r="F5">
-        <v>3.50721000263772</v>
+        <v>1.925413997875097</v>
       </c>
       <c r="G5">
-        <v>0.002616372074329108</v>
+        <v>0.0008552553306883373</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.832132023001506</v>
+        <v>0.9149172232655047</v>
       </c>
       <c r="J5">
-        <v>0.08573202252093459</v>
+        <v>0.04885092360850862</v>
       </c>
       <c r="K5">
-        <v>1.645889178881333</v>
+        <v>1.874837391141142</v>
       </c>
       <c r="L5">
-        <v>0.6150862048524317</v>
+        <v>0.4608897889037848</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.269156191708689</v>
+        <v>1.77003906375726</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9032673780700122</v>
+        <v>0.6591220475516195</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006260484110869768</v>
+        <v>0.003638244271822799</v>
       </c>
       <c r="E6">
-        <v>0.03687544212638194</v>
+        <v>0.01883297929151073</v>
       </c>
       <c r="F6">
-        <v>3.507107760567891</v>
+        <v>1.921751739072576</v>
       </c>
       <c r="G6">
-        <v>0.002616585574795886</v>
+        <v>0.0008555747514095507</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.832419690735087</v>
+        <v>0.9146661989962865</v>
       </c>
       <c r="J6">
-        <v>0.08570704869522316</v>
+        <v>0.04878157221469515</v>
       </c>
       <c r="K6">
-        <v>1.643102237806744</v>
+        <v>1.862473357993963</v>
       </c>
       <c r="L6">
-        <v>0.6146342748753</v>
+        <v>0.4584267846842636</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.270056494027429</v>
+        <v>1.772105183839685</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9085070228616416</v>
+        <v>0.6858669075982107</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006370204084134912</v>
+        <v>0.00387397277951429</v>
       </c>
       <c r="E7">
-        <v>0.03702382030266271</v>
+        <v>0.01926091287986864</v>
       </c>
       <c r="F7">
-        <v>3.507953513624926</v>
+        <v>1.947445493196881</v>
       </c>
       <c r="G7">
-        <v>0.002615117399647361</v>
+        <v>0.0008533702549740845</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.830478928126638</v>
+        <v>0.916514547721377</v>
       </c>
       <c r="J7">
-        <v>0.0858797346046174</v>
+        <v>0.04926357081664001</v>
       </c>
       <c r="K7">
-        <v>1.662539603294618</v>
+        <v>1.948518440177509</v>
       </c>
       <c r="L7">
-        <v>0.6178016726239406</v>
+        <v>0.4755846408784805</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.263879805800649</v>
+        <v>1.757915993355631</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9326708081197239</v>
+        <v>0.8055882862537089</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.006848576549902674</v>
+        <v>0.004994168624845585</v>
       </c>
       <c r="E8">
-        <v>0.03766522055178623</v>
+        <v>0.02118002994243717</v>
       </c>
       <c r="F8">
-        <v>3.515054085556315</v>
+        <v>2.067964029330213</v>
       </c>
       <c r="G8">
-        <v>0.002608978078115659</v>
+        <v>0.0008439478457222135</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.823299491558728</v>
+        <v>0.9273936904351388</v>
       </c>
       <c r="J8">
-        <v>0.08662555808898631</v>
+        <v>0.05141080139920362</v>
       </c>
       <c r="K8">
-        <v>1.750614737520891</v>
+        <v>2.334359378094149</v>
       </c>
       <c r="L8">
-        <v>0.6325339166372146</v>
+        <v>0.5529576962498908</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.238415365038492</v>
+        <v>1.699160162586296</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9837848492852572</v>
+        <v>1.047814704101228</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007768261333275461</v>
+        <v>0.007581896909080399</v>
       </c>
       <c r="E9">
-        <v>0.03887651204996345</v>
+        <v>0.02511754076874606</v>
       </c>
       <c r="F9">
-        <v>3.541100543492462</v>
+        <v>2.333807413116432</v>
       </c>
       <c r="G9">
-        <v>0.002598150368226192</v>
+        <v>0.0008264951539945339</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.81419717539243</v>
+        <v>0.9595704136217265</v>
       </c>
       <c r="J9">
-        <v>0.08803111890760817</v>
+        <v>0.0557465449708765</v>
       </c>
       <c r="K9">
-        <v>1.931637466542156</v>
+        <v>3.119113101840242</v>
       </c>
       <c r="L9">
-        <v>0.6641428359853592</v>
+        <v>0.7119940553797619</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.194925418027012</v>
+        <v>1.598837774300335</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.023602895980247</v>
+        <v>1.231735554260922</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.008435070263981714</v>
+        <v>0.009834861445295218</v>
       </c>
       <c r="E10">
-        <v>0.03973960263871223</v>
+        <v>0.02818610883800332</v>
       </c>
       <c r="F10">
-        <v>3.567650733263918</v>
+        <v>2.551179774591034</v>
       </c>
       <c r="G10">
-        <v>0.002590925815742676</v>
+        <v>0.0008142202400823201</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.81054518348575</v>
+        <v>0.9909293314169076</v>
       </c>
       <c r="J10">
-        <v>0.08903027771791905</v>
+        <v>0.05906517041298542</v>
       </c>
       <c r="K10">
-        <v>2.069752200506912</v>
+        <v>3.71923941002126</v>
       </c>
       <c r="L10">
-        <v>0.6890325281724188</v>
+        <v>0.8347211087074697</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.166907277455152</v>
+        <v>1.535293533755564</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.042207446416</v>
+        <v>1.317049199416715</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.008737002172452435</v>
+        <v>0.01096570047452516</v>
       </c>
       <c r="E11">
-        <v>0.0401267441132136</v>
+        <v>0.02963825416921395</v>
       </c>
       <c r="F11">
-        <v>3.581344705936374</v>
+        <v>2.655872652565535</v>
       </c>
       <c r="G11">
-        <v>0.002587796113480404</v>
+        <v>0.0008087359730070506</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.809543443138857</v>
+        <v>1.007146651647695</v>
       </c>
       <c r="J11">
-        <v>0.08947781781954234</v>
+        <v>0.06061854071101713</v>
       </c>
       <c r="K11">
-        <v>2.133707936777512</v>
+        <v>3.998977103905418</v>
       </c>
       <c r="L11">
-        <v>0.7007196015642592</v>
+        <v>0.8921872182830271</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.155016361132809</v>
+        <v>1.508862815444942</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049322899970122</v>
+        <v>1.349624228939945</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.008851175693916247</v>
+        <v>0.01141202608037162</v>
       </c>
       <c r="E12">
-        <v>0.0402725817599725</v>
+        <v>0.03019797357436182</v>
       </c>
       <c r="F12">
-        <v>3.586763014009904</v>
+        <v>2.69644721941674</v>
       </c>
       <c r="G12">
-        <v>0.002586633392486748</v>
+        <v>0.0008066718064317581</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.809258981875431</v>
+        <v>1.013594079626785</v>
       </c>
       <c r="J12">
-        <v>0.08964630627126802</v>
+        <v>0.06121446647883566</v>
       </c>
       <c r="K12">
-        <v>2.158089005847444</v>
+        <v>4.106025090680021</v>
       </c>
       <c r="L12">
-        <v>0.7051977386696819</v>
+        <v>0.9142167995882176</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.150636603373741</v>
+        <v>1.499235821474898</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.04778733737021</v>
+        <v>1.342596127339675</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.008826592922446252</v>
+        <v>0.01131504698741281</v>
       </c>
       <c r="E13">
-        <v>0.04024120662715447</v>
+        <v>0.03007696092889134</v>
       </c>
       <c r="F13">
-        <v>3.58558573029427</v>
+        <v>2.687665803875134</v>
       </c>
       <c r="G13">
-        <v>0.002586882809547949</v>
+        <v>0.0008071158303457687</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.809316025534393</v>
+        <v>1.012191452752965</v>
       </c>
       <c r="J13">
-        <v>0.08961006278819816</v>
+        <v>0.06108575631298763</v>
       </c>
       <c r="K13">
-        <v>2.152830876073494</v>
+        <v>4.082918154333299</v>
       </c>
       <c r="L13">
-        <v>0.704230955901977</v>
+        <v>0.9094598329914447</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.151574386002551</v>
+        <v>1.501291749155172</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.042791431617275</v>
+        <v>1.31972359021853</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.008746398302488245</v>
+        <v>0.0110020393679946</v>
       </c>
       <c r="E14">
-        <v>0.04013875744627793</v>
+        <v>0.0296840949678927</v>
       </c>
       <c r="F14">
-        <v>3.58178580806053</v>
+        <v>2.659191538877195</v>
       </c>
       <c r="G14">
-        <v>0.002587700006817593</v>
+        <v>0.0008085659105682009</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.809518138695111</v>
+        <v>1.007670791070993</v>
       </c>
       <c r="J14">
-        <v>0.08949169910355614</v>
+        <v>0.06066740483996824</v>
       </c>
       <c r="K14">
-        <v>2.135710524480373</v>
+        <v>4.007760702936366</v>
       </c>
       <c r="L14">
-        <v>0.7010869681267025</v>
+        <v>0.8939940238681743</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.154653568229179</v>
+        <v>1.508062988852302</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.039740442964586</v>
+        <v>1.305749477594304</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.008697256945922049</v>
+        <v>0.01081276216464744</v>
       </c>
       <c r="E15">
-        <v>0.04007590552990514</v>
+        <v>0.02944478801941486</v>
       </c>
       <c r="F15">
-        <v>3.579488559055719</v>
+        <v>2.641874267470598</v>
       </c>
       <c r="G15">
-        <v>0.002588203481347312</v>
+        <v>0.0008094557141466093</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.809654295471262</v>
+        <v>1.00494244660635</v>
       </c>
       <c r="J15">
-        <v>0.08941907017786654</v>
+        <v>0.06041220011900705</v>
       </c>
       <c r="K15">
-        <v>2.12524497899841</v>
+        <v>3.961874797466862</v>
       </c>
       <c r="L15">
-        <v>0.6991680232996487</v>
+        <v>0.8845567654783508</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.156555689357447</v>
+        <v>1.512261093895106</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.022396901007312</v>
+        <v>1.226195894029189</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.008415313497341259</v>
+        <v>0.009763326817381568</v>
       </c>
       <c r="E16">
-        <v>0.03971419375069196</v>
+        <v>0.02809248266679365</v>
       </c>
       <c r="F16">
-        <v>3.566788346276439</v>
+        <v>2.544462579294901</v>
       </c>
       <c r="G16">
-        <v>0.002591133494002627</v>
+        <v>0.0008145805117200767</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.810623924356591</v>
+        <v>0.9899108985754808</v>
       </c>
       <c r="J16">
-        <v>0.08900089101940623</v>
+        <v>0.05896465017896979</v>
       </c>
       <c r="K16">
-        <v>2.065595248462785</v>
+        <v>3.701105804562246</v>
       </c>
       <c r="L16">
-        <v>0.6882760929906624</v>
+        <v>0.8310012459346581</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.167701589724658</v>
+        <v>1.537072800668128</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.011882766958109</v>
+        <v>1.177835832502211</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.008242019457014749</v>
+        <v>0.009148590701606452</v>
       </c>
       <c r="E17">
-        <v>0.03949090801441368</v>
+        <v>0.02727845645406823</v>
       </c>
       <c r="F17">
-        <v>3.559411321605594</v>
+        <v>2.48625554473341</v>
       </c>
       <c r="G17">
-        <v>0.00259297103520754</v>
+        <v>0.0008177487595860299</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.811387712714421</v>
+        <v>0.9812068811694274</v>
       </c>
       <c r="J17">
-        <v>0.08874257662825258</v>
+        <v>0.05808876905811289</v>
       </c>
       <c r="K17">
-        <v>2.029290919751588</v>
+        <v>3.542958833837133</v>
       </c>
       <c r="L17">
-        <v>0.6816876801707679</v>
+        <v>0.7985883391283153</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.174758262966023</v>
+        <v>1.552945562171061</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.005881560019475</v>
+        <v>1.150173361728434</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.00814221083410871</v>
+        <v>0.008804790952410713</v>
       </c>
       <c r="E18">
-        <v>0.03936196245180223</v>
+        <v>0.0268154269391454</v>
       </c>
       <c r="F18">
-        <v>3.55532035430781</v>
+        <v>2.453316975873378</v>
       </c>
       <c r="G18">
-        <v>0.002594042704051565</v>
+        <v>0.0008195805447235348</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.811889103330081</v>
+        <v>0.9763826129822988</v>
       </c>
       <c r="J18">
-        <v>0.08859334268683483</v>
+        <v>0.05758900493502317</v>
       </c>
       <c r="K18">
-        <v>2.008515650574338</v>
+        <v>3.452621229758336</v>
       </c>
       <c r="L18">
-        <v>0.6779325158712766</v>
+        <v>0.7800971963122834</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.178897510331765</v>
+        <v>1.562306502753145</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.003857606527163</v>
+        <v>1.140832678188247</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.008108393037858264</v>
+        <v>0.008689984831487862</v>
       </c>
       <c r="E19">
-        <v>0.0393182140899091</v>
+        <v>0.0266594929643853</v>
       </c>
       <c r="F19">
-        <v>3.553961337884488</v>
+        <v>2.442254673077031</v>
       </c>
       <c r="G19">
-        <v>0.002594408092116973</v>
+        <v>0.0008202024357626905</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.812069526935559</v>
+        <v>0.9747797286093629</v>
       </c>
       <c r="J19">
-        <v>0.08854270100002104</v>
+        <v>0.05742044364869336</v>
       </c>
       <c r="K19">
-        <v>2.001499698278622</v>
+        <v>3.422137430498594</v>
       </c>
       <c r="L19">
-        <v>0.6766669737862969</v>
+        <v>0.7738615531275457</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.180312798058253</v>
+        <v>1.565514950985246</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.012997230561837</v>
+        <v>1.182967793075562</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.008260480530477565</v>
+        <v>0.009212998650522053</v>
       </c>
       <c r="E20">
-        <v>0.03951473054891164</v>
+        <v>0.02736456329474279</v>
       </c>
       <c r="F20">
-        <v>3.56018087440961</v>
+        <v>2.49239518352077</v>
       </c>
       <c r="G20">
-        <v>0.002592773898473495</v>
+        <v>0.0008174105237926897</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.811299980929071</v>
+        <v>0.9821144198764458</v>
       </c>
       <c r="J20">
-        <v>0.08877014263484284</v>
+        <v>0.0581815824420655</v>
       </c>
       <c r="K20">
-        <v>2.03314460189614</v>
+        <v>3.559728205136821</v>
       </c>
       <c r="L20">
-        <v>0.6823854758948471</v>
+        <v>0.8020227988907322</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.173998742082446</v>
+        <v>1.551231758367834</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.044256944376087</v>
+        <v>1.326434250047868</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.008769957467290368</v>
+        <v>0.01109346125094746</v>
       </c>
       <c r="E21">
-        <v>0.04016886980810419</v>
+        <v>0.02979920762088994</v>
       </c>
       <c r="F21">
-        <v>3.582895619569001</v>
+        <v>2.667529088552428</v>
       </c>
       <c r="G21">
-        <v>0.002587459368254275</v>
+        <v>0.0008081396593857537</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.809456197990301</v>
+        <v>1.008990089489323</v>
       </c>
       <c r="J21">
-        <v>0.0895264919765193</v>
+        <v>0.06079006369241924</v>
       </c>
       <c r="K21">
-        <v>2.14073477539614</v>
+        <v>4.029804677541847</v>
       </c>
       <c r="L21">
-        <v>0.7020090082999388</v>
+        <v>0.8985291412548975</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.1537457961672</v>
+        <v>1.506063532322543</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.065096678179174</v>
+        <v>1.421780613172984</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.009102007536206713</v>
+        <v>0.01242958356543511</v>
       </c>
       <c r="E22">
-        <v>0.04059194326482363</v>
+        <v>0.03144862769474877</v>
       </c>
       <c r="F22">
-        <v>3.59909750418592</v>
+        <v>2.787459210694379</v>
       </c>
       <c r="G22">
-        <v>0.002584116696958536</v>
+        <v>0.0008021531629537273</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.808804206025776</v>
+        <v>1.02835398484865</v>
       </c>
       <c r="J22">
-        <v>0.0900150759109799</v>
+        <v>0.06254052399829391</v>
       </c>
       <c r="K22">
-        <v>2.211998079421448</v>
+        <v>4.343620921721197</v>
       </c>
       <c r="L22">
-        <v>0.7151401400555528</v>
+        <v>0.9631841292054446</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.141226779628042</v>
+        <v>1.478782604562639</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.053936733081542</v>
+        <v>1.370736298900624</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.008924857167603051</v>
+        <v>0.01170561582411622</v>
       </c>
       <c r="E23">
-        <v>0.04036653966962866</v>
+        <v>0.03056233595231284</v>
       </c>
       <c r="F23">
-        <v>3.590326034432763</v>
+        <v>2.722915877020355</v>
       </c>
       <c r="G23">
-        <v>0.00258588882438946</v>
+        <v>0.0008053422469898779</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.809101573439875</v>
+        <v>1.017845327572616</v>
       </c>
       <c r="J23">
-        <v>0.08975482789327849</v>
+        <v>0.06160157469137317</v>
       </c>
       <c r="K23">
-        <v>2.17387673233327</v>
+        <v>4.175474480812284</v>
       </c>
       <c r="L23">
-        <v>0.7081037854121632</v>
+        <v>0.9285198742886678</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.147842708791543</v>
+        <v>1.493128825477925</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.012493246019744</v>
+        <v>1.180647198830741</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.008252134842635428</v>
+        <v>0.009183850063383403</v>
       </c>
       <c r="E24">
-        <v>0.03950396217642371</v>
+        <v>0.02732561905543562</v>
       </c>
       <c r="F24">
-        <v>3.559832491801188</v>
+        <v>2.489617823229381</v>
       </c>
       <c r="G24">
-        <v>0.002592862976464721</v>
+        <v>0.0008175634079240511</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.811339450476915</v>
+        <v>0.9817035635312621</v>
       </c>
       <c r="J24">
-        <v>0.08875768230514502</v>
+        <v>0.0581396098054725</v>
       </c>
       <c r="K24">
-        <v>2.031402051419718</v>
+        <v>3.552144966874835</v>
       </c>
       <c r="L24">
-        <v>0.6820699009028033</v>
+        <v>0.8004696352091685</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.174341865208106</v>
+        <v>1.55200583751477</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9695588521705929</v>
+        <v>0.9813496518492002</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.007521192775790553</v>
+        <v>0.006829112391638859</v>
       </c>
       <c r="E25">
-        <v>0.03855364894939761</v>
+        <v>0.02402701671071572</v>
       </c>
       <c r="F25">
-        <v>3.532754090591681</v>
+        <v>2.258333620578014</v>
       </c>
       <c r="G25">
-        <v>0.002600950681446724</v>
+        <v>0.0008311144381360805</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.81612666107965</v>
+        <v>0.9495965688449601</v>
       </c>
       <c r="J25">
-        <v>0.08765685175759863</v>
+        <v>0.05455474881807909</v>
       </c>
       <c r="K25">
-        <v>1.881771223972862</v>
+        <v>2.903179307714481</v>
       </c>
       <c r="L25">
-        <v>0.6552997742508069</v>
+        <v>0.668048839886751</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.206000101529995</v>
+        <v>1.624277497722062</v>
       </c>
       <c r="O25">
         <v>0</v>
